--- a/Отчеты/РеноОт2024-01-19.xlsx
+++ b/Отчеты/РеноОт2024-01-19.xlsx
@@ -2099,40 +2099,26 @@
       </c>
     </row>
     <row r="7" ht="21" customHeight="1" s="32">
-      <c r="A7" s="24" t="inlineStr">
-        <is>
-          <t>19-01-24 21:29</t>
-        </is>
-      </c>
+      <c r="A7" s="24" t="n"/>
       <c r="B7" s="57" t="n"/>
-      <c r="C7" s="57" t="n">
-        <v>10000</v>
-      </c>
+      <c r="C7" s="57" t="n"/>
       <c r="D7" s="25" t="n"/>
       <c r="E7" s="28" t="n"/>
-      <c r="F7" s="31" t="inlineStr">
+      <c r="F7" s="31" t="n"/>
+      <c r="G7" s="59" t="n"/>
+      <c r="H7" s="45" t="n"/>
+      <c r="I7" s="33" t="inlineStr">
         <is>
           <t>19-01-24 21:29</t>
         </is>
       </c>
-      <c r="G7" s="59" t="n">
-        <v>50</v>
-      </c>
-      <c r="H7" s="45" t="n">
-        <v>3000</v>
-      </c>
-      <c r="I7" s="33" t="inlineStr">
-        <is>
-          <t>19-01-24 21:20</t>
-        </is>
-      </c>
       <c r="J7" s="65" t="inlineStr">
         <is>
-          <t xml:space="preserve">Еда </t>
+          <t>Запчасти</t>
         </is>
       </c>
       <c r="K7" s="61" t="n">
-        <v>5007</v>
+        <v>780</v>
       </c>
       <c r="L7" s="33" t="n"/>
       <c r="M7" s="68" t="n"/>
@@ -2144,30 +2130,12 @@
       <c r="C8" s="46" t="n"/>
       <c r="D8" s="127" t="n"/>
       <c r="E8" s="17" t="n"/>
-      <c r="F8" s="30" t="inlineStr">
-        <is>
-          <t>19-01-24 21:12</t>
-        </is>
-      </c>
-      <c r="G8" s="60" t="n">
-        <v>89</v>
-      </c>
-      <c r="H8" s="46" t="n">
-        <v>500</v>
-      </c>
-      <c r="I8" s="8" t="inlineStr">
-        <is>
-          <t>19-01-24 21:29</t>
-        </is>
-      </c>
-      <c r="J8" s="66" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Шиномонтаж </t>
-        </is>
-      </c>
-      <c r="K8" s="62" t="n">
-        <v>380</v>
-      </c>
+      <c r="F8" s="30" t="n"/>
+      <c r="G8" s="60" t="n"/>
+      <c r="H8" s="46" t="n"/>
+      <c r="I8" s="8" t="n"/>
+      <c r="J8" s="66" t="n"/>
+      <c r="K8" s="62" t="n"/>
       <c r="L8" s="8" t="n"/>
       <c r="M8" s="66" t="n"/>
       <c r="N8" s="64" t="n"/>
@@ -2181,19 +2149,9 @@
       <c r="F9" s="30" t="n"/>
       <c r="G9" s="60" t="n"/>
       <c r="H9" s="46" t="n"/>
-      <c r="I9" s="8" t="inlineStr">
-        <is>
-          <t>19-01-24 21:29</t>
-        </is>
-      </c>
-      <c r="J9" s="66" t="inlineStr">
-        <is>
-          <t>Запчасти</t>
-        </is>
-      </c>
-      <c r="K9" s="62" t="n">
-        <v>780</v>
-      </c>
+      <c r="I9" s="8" t="n"/>
+      <c r="J9" s="66" t="n"/>
+      <c r="K9" s="62" t="n"/>
       <c r="L9" s="8" t="n"/>
       <c r="M9" s="66" t="n"/>
       <c r="N9" s="64" t="n"/>
